--- a/use_case_content/truth_table.xlsx
+++ b/use_case_content/truth_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meltr\OneDrive\Documents\(APT2)\D4\STAGE\github\info_extraction\validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meltr\OneDrive\Documents\(APT2)\D4\STAGE\github\GenEval\use_case_content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B8FCE4-E8B5-4E3D-AD91-9C8A6AA9499E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC177C7-7864-4E3D-8686-FD1266A0734C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60B66054-40DB-41B8-8E9E-5B6A11408C44}"/>
+    <workbookView xWindow="3900" yWindow="-18330" windowWidth="13830" windowHeight="7110" xr2:uid="{60B66054-40DB-41B8-8E9E-5B6A11408C44}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t xml:space="preserve">Nb </t>
   </si>
@@ -117,6 +117,57 @@
   </si>
   <si>
     <t>OTRH,GJKO,hfhjz</t>
+  </si>
+  <si>
+    <t>Bool</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>llm test</t>
+  </si>
+  <si>
+    <t>A or B</t>
+  </si>
+  <si>
+    <t>A and B</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>D and C</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>meat, cooked</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>bacillus, broccoli</t>
+  </si>
+  <si>
+    <t>i am 24 years old and Portuguese.</t>
+  </si>
+  <si>
+    <t>i am hungry and it's impacting my judgement</t>
+  </si>
+  <si>
+    <t>E. Coli was found in several meats across the supermarket's aisles</t>
+  </si>
+  <si>
+    <t>98+42</t>
   </si>
 </sst>
 </file>
@@ -140,7 +191,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -148,101 +199,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,139 +541,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF31127-1B70-4A1A-8D0F-80A1D8666AE3}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>575</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>23</v>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>575</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6" t="s">
-        <v>24</v>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="6"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>1000</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
-        <v>34</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9" t="s">
-        <v>26</v>
-      </c>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/use_case_content/truth_table.xlsx
+++ b/use_case_content/truth_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meltr\OneDrive\Documents\(APT2)\D4\STAGE\github\GenEval\use_case_content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC177C7-7864-4E3D-8686-FD1266A0734C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FA05DE-62CB-4917-BB85-C091C37965A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="-18330" windowWidth="13830" windowHeight="7110" xr2:uid="{60B66054-40DB-41B8-8E9E-5B6A11408C44}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60B66054-40DB-41B8-8E9E-5B6A11408C44}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t xml:space="preserve">Nb </t>
   </si>
@@ -168,14 +168,31 @@
   </si>
   <si>
     <t>98+42</t>
+  </si>
+  <si>
+    <t>à ignorer</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -203,10 +220,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,15 +557,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF31127-1B70-4A1A-8D0F-80A1D8666AE3}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -559,10 +580,10 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -574,18 +595,21 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" t="s">
@@ -594,27 +618,30 @@
       <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>575</v>
       </c>
       <c r="D3" t="s">
@@ -623,23 +650,24 @@
       <c r="E3" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4">
@@ -648,22 +676,24 @@
       <c r="E4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="I4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>1000</v>
       </c>
       <c r="D5" t="s">
@@ -672,49 +702,53 @@
       <c r="E5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="E6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="2" t="s">
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>34</v>
       </c>
       <c r="D7" t="s">
@@ -723,20 +757,12 @@
       <c r="E7" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
